--- a/JLR contract.xlsx
+++ b/JLR contract.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>note the 4 weeks notice… ie if they wanted to get rid of you. Equally ( &amp; worse) if they didn't want to lose you, but had to because of budget cuts…</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t xml:space="preserve">thoughts? </t>
+  </si>
+  <si>
+    <t>Yeah annoying but works both ways really. I.e I could accept a contracrt renewal then find a job at say Ford in Essex and quit within 4 weeks</t>
+  </si>
+  <si>
+    <t>Reading through the lease, if I terminate the contract early I am liable to pay landlords commision to estate agents</t>
+  </si>
+  <si>
+    <t>Yes I did see this but havent ever spoken to her. Also, I havent signed and returned the contract yet… should probably do that</t>
+  </si>
+  <si>
+    <t>Opt-Out for what??</t>
+  </si>
+  <si>
+    <t>I don’t know how to lay out an invoice so that would be helpful</t>
+  </si>
+  <si>
+    <t>How do they work?? Do I keep one and JLR will keep their copy and contechs pay me from JLR and I just check the amount is correct??</t>
+  </si>
+  <si>
+    <t>Brilliant! I'll have to make sure Ive got enough smart clothes!</t>
+  </si>
+  <si>
+    <t>Yeah I saw this but I've got a nice suit now so that’s no bother</t>
+  </si>
+  <si>
+    <t>Me neither… will do that before signing and returning</t>
   </si>
 </sst>
 </file>
@@ -447,7 +474,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,14 +496,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -485,16 +514,20 @@
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -503,7 +536,9 @@
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -512,7 +547,9 @@
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -521,7 +558,9 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -530,7 +569,9 @@
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -539,7 +580,9 @@
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -548,7 +591,9 @@
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1"/>
